--- a/DOMINGO, DAVEMAR.xlsx
+++ b/DOMINGO, DAVEMAR.xlsx
@@ -703,11 +703,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -799,6 +799,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -813,129 +927,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,6 +940,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -981,7 +981,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,55 +1083,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,67 +1125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,37 +1143,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,11 +1225,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,6 +1261,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,78 +1312,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1341,131 +1341,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1510,7 +1510,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1584,7 +1584,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5889,7 +5889,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
